--- a/raw_data/20200818_saline/20200818_Sensor1_Test_7.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_7.xlsx
@@ -1,718 +1,1134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EEB1A5-5FA4-49A4-B112-6775AF2A259C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>5589.314669</v>
+        <v>5589.3146690000003</v>
       </c>
       <c r="B2" s="1">
-        <v>1.552587</v>
+        <v>1.5525869999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>898.662000</v>
+        <v>898.66200000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.348000</v>
+        <v>-200.34800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5599.722192</v>
+        <v>5599.7221920000002</v>
       </c>
       <c r="G2" s="1">
-        <v>1.555478</v>
+        <v>1.5554779999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.925000</v>
+        <v>916.92499999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.078000</v>
+        <v>-169.078</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>5610.208610</v>
+        <v>5610.2086099999997</v>
       </c>
       <c r="L2" s="1">
-        <v>1.558391</v>
+        <v>1.5583910000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>939.862000</v>
+        <v>939.86199999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.806000</v>
+        <v>-119.806</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>5621.017467</v>
+        <v>5621.0174669999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.561394</v>
+        <v>1.5613939999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>946.674000</v>
+        <v>946.67399999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.359000</v>
+        <v>-103.35899999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>5631.607053</v>
+        <v>5631.6070529999997</v>
       </c>
       <c r="V2" s="1">
         <v>1.564335</v>
       </c>
       <c r="W2" s="1">
-        <v>953.070000</v>
+        <v>953.07</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.108300</v>
+        <v>-88.1083</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>5642.373672</v>
+        <v>5642.3736719999997</v>
       </c>
       <c r="AA2" s="1">
         <v>1.567326</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.002000</v>
+        <v>960.00199999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.419500</v>
+        <v>-76.419499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>5652.936473</v>
+        <v>5652.9364729999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.570260</v>
+        <v>1.57026</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.555000</v>
+        <v>964.55499999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.214700</v>
+        <v>-74.214699999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5663.300876</v>
+        <v>5663.3008760000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.573139</v>
+        <v>1.5731390000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.680000</v>
+        <v>971.68</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.796000</v>
+        <v>-78.796000000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>5673.836399</v>
+        <v>5673.8363989999998</v>
       </c>
       <c r="AP2" s="1">
         <v>1.576066</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.697000</v>
+        <v>979.697</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.206500</v>
+        <v>-90.206500000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>5684.835679</v>
+        <v>5684.8356789999998</v>
       </c>
       <c r="AU2" s="1">
         <v>1.579121</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.403000</v>
+        <v>989.40300000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.616000</v>
+        <v>-107.616</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>5696.023472</v>
+        <v>5696.0234719999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.582229</v>
+        <v>1.5822290000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.519000</v>
+        <v>997.51900000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.007000</v>
+        <v>-123.00700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>5707.670497</v>
+        <v>5707.6704970000001</v>
       </c>
       <c r="BE2" s="1">
         <v>1.585464</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.098000</v>
+        <v>-194.09800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>5718.422771</v>
+        <v>5718.4227709999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.588451</v>
+        <v>1.5884510000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.200000</v>
+        <v>1100.2</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.214000</v>
+        <v>-310.214</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>5728.539173</v>
+        <v>5728.5391730000001</v>
       </c>
       <c r="BO2" s="1">
         <v>1.591261</v>
       </c>
       <c r="BP2" s="1">
-        <v>1206.130000</v>
+        <v>1206.1300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-494.635000</v>
+        <v>-494.63499999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>5739.316281</v>
+        <v>5739.3162810000003</v>
       </c>
       <c r="BT2" s="1">
         <v>1.594255</v>
       </c>
       <c r="BU2" s="1">
-        <v>1325.900000</v>
+        <v>1325.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-698.184000</v>
+        <v>-698.18399999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>5750.077983</v>
+        <v>5750.0779830000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.597244</v>
+        <v>1.5972440000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1461.020000</v>
+        <v>1461.02</v>
       </c>
       <c r="CA2" s="1">
-        <v>-915.140000</v>
+        <v>-915.14</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>5760.945291</v>
@@ -721,392 +1137,392 @@
         <v>1.600263</v>
       </c>
       <c r="CE2" s="1">
-        <v>1817.980000</v>
+        <v>1817.98</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1433.010000</v>
+        <v>-1433.01</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>5589.720202</v>
+        <v>5589.7202020000004</v>
       </c>
       <c r="B3" s="1">
-        <v>1.552700</v>
+        <v>1.5527</v>
       </c>
       <c r="C3" s="1">
-        <v>898.771000</v>
+        <v>898.77099999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.202000</v>
+        <v>-200.202</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>5600.103615</v>
       </c>
       <c r="G3" s="1">
-        <v>1.555584</v>
+        <v>1.5555840000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>916.841000</v>
+        <v>916.84100000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.363000</v>
+        <v>-169.363</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5610.567713</v>
+        <v>5610.5677130000004</v>
       </c>
       <c r="L3" s="1">
-        <v>1.558491</v>
+        <v>1.5584910000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>939.870000</v>
+        <v>939.87</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.840000</v>
+        <v>-119.84</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>5621.408275</v>
+        <v>5621.4082749999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.561502</v>
+        <v>1.5615019999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.709000</v>
+        <v>946.70899999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.294000</v>
+        <v>-103.294</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>5631.991445</v>
+        <v>5631.9914449999997</v>
       </c>
       <c r="V3" s="1">
-        <v>1.564442</v>
+        <v>1.5644420000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>953.064000</v>
+        <v>953.06399999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.127400</v>
+        <v>-88.127399999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>5642.780427</v>
+        <v>5642.7804269999997</v>
       </c>
       <c r="AA3" s="1">
         <v>1.567439</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.972000</v>
+        <v>959.97199999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.477800</v>
+        <v>-76.477800000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>5653.283176</v>
+        <v>5653.2831759999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.570356</v>
+        <v>1.5703560000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.526000</v>
+        <v>964.52599999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.193500</v>
+        <v>-74.1935</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>5663.655019</v>
+        <v>5663.6550189999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.573238</v>
+        <v>1.5732379999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.682000</v>
+        <v>971.68200000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.803600</v>
+        <v>-78.803600000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>5674.210877</v>
+        <v>5674.2108770000004</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.576170</v>
+        <v>1.5761700000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.698000</v>
+        <v>979.69799999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.232000</v>
+        <v>-90.231999999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>5685.242399</v>
+        <v>5685.2423989999998</v>
       </c>
       <c r="AU3" s="1">
         <v>1.579234</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.423000</v>
+        <v>989.423</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.594000</v>
+        <v>-107.59399999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>5696.704943</v>
+        <v>5696.7049429999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.582418</v>
+        <v>1.5824180000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.511000</v>
+        <v>997.51099999999997</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.004000</v>
+        <v>-123.004</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>5707.780113</v>
+        <v>5707.7801129999998</v>
       </c>
       <c r="BE3" s="1">
         <v>1.585494</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.098000</v>
+        <v>-194.09800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>5718.534867</v>
+        <v>5718.5348670000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.588482</v>
+        <v>1.5884819999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.242000</v>
+        <v>-310.24200000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>5728.980117</v>
+        <v>5728.9801170000001</v>
       </c>
       <c r="BO3" s="1">
         <v>1.591383</v>
       </c>
       <c r="BP3" s="1">
-        <v>1206.070000</v>
+        <v>1206.07</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-494.632000</v>
+        <v>-494.63200000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>5739.780998</v>
+        <v>5739.7809980000002</v>
       </c>
       <c r="BT3" s="1">
         <v>1.594384</v>
       </c>
       <c r="BU3" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="BV3" s="1">
-        <v>-698.233000</v>
+        <v>-698.23299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>5750.544184</v>
+        <v>5750.5441840000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.597373</v>
+        <v>1.5973729999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1461.090000</v>
+        <v>1461.09</v>
       </c>
       <c r="CA3" s="1">
-        <v>-915.218000</v>
+        <v>-915.21799999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>5761.493867</v>
+        <v>5761.4938670000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.600415</v>
+        <v>1.6004149999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1818.780000</v>
+        <v>1818.78</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1432.000000</v>
+        <v>-1432</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>5590.062109</v>
+        <v>5590.0621090000004</v>
       </c>
       <c r="B4" s="1">
-        <v>1.552795</v>
+        <v>1.5527949999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>898.670000</v>
+        <v>898.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.428000</v>
+        <v>-200.428</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>5600.458255</v>
+        <v>5600.4582549999996</v>
       </c>
       <c r="G4" s="1">
-        <v>1.555683</v>
+        <v>1.5556829999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>916.739000</v>
+        <v>916.73900000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.291000</v>
+        <v>-169.291</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>5610.914945</v>
+        <v>5610.9149450000004</v>
       </c>
       <c r="L4" s="1">
-        <v>1.558587</v>
+        <v>1.5585869999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.854000</v>
+        <v>939.85400000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.910000</v>
+        <v>-119.91</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>5622.101682</v>
+        <v>5622.1016820000004</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.561695</v>
+        <v>1.5616950000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.738000</v>
+        <v>946.73800000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.265000</v>
+        <v>-103.265</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>5632.679861</v>
+        <v>5632.6798609999996</v>
       </c>
       <c r="V4" s="1">
-        <v>1.564633</v>
+        <v>1.5646329999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>953.085000</v>
+        <v>953.08500000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.210100</v>
+        <v>-88.210099999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>5643.109735</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.567530</v>
+        <v>1.5675300000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.947000</v>
+        <v>959.947</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.383100</v>
+        <v>-76.383099999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>5653.628392</v>
+        <v>5653.6283919999996</v>
       </c>
       <c r="AF4" s="1">
         <v>1.570452</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.539000</v>
+        <v>964.53899999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.212300</v>
+        <v>-74.212299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5664.002715</v>
+        <v>5664.0027149999996</v>
       </c>
       <c r="AK4" s="1">
         <v>1.573334</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.679000</v>
+        <v>971.67899999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.797000</v>
+        <v>-78.796999999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>5674.879484</v>
@@ -1115,195 +1531,195 @@
         <v>1.576355</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.681000</v>
+        <v>979.68100000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.210700</v>
+        <v>-90.210700000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>5685.961102</v>
+        <v>5685.9611020000002</v>
       </c>
       <c r="AU4" s="1">
         <v>1.579434</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.412000</v>
+        <v>989.41200000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.580000</v>
+        <v>-107.58</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>5697.116128</v>
+        <v>5697.1161279999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.582532</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.512000</v>
+        <v>997.51199999999994</v>
       </c>
       <c r="BB4" s="1">
-        <v>-122.993000</v>
+        <v>-122.99299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>5708.139712</v>
+        <v>5708.1397120000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.585594</v>
+        <v>1.5855939999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.085000</v>
+        <v>-194.08500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>5718.897938</v>
+        <v>5718.8979380000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.588583</v>
+        <v>1.5885830000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.235000</v>
+        <v>-310.23500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>5729.397748</v>
+        <v>5729.3977480000003</v>
       </c>
       <c r="BO4" s="1">
         <v>1.591499</v>
       </c>
       <c r="BP4" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-494.631000</v>
+        <v>-494.63099999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>5740.210534</v>
+        <v>5740.2105339999998</v>
       </c>
       <c r="BT4" s="1">
         <v>1.594503</v>
       </c>
       <c r="BU4" s="1">
-        <v>1326.000000</v>
+        <v>1326</v>
       </c>
       <c r="BV4" s="1">
-        <v>-698.200000</v>
+        <v>-698.2</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>5750.989252</v>
+        <v>5750.9892520000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.597497</v>
+        <v>1.5974969999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1461.030000</v>
+        <v>1461.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-915.137000</v>
+        <v>-915.13699999999994</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>5762.012681</v>
+        <v>5762.0126810000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.600559</v>
+        <v>1.6005590000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1817.490000</v>
+        <v>1817.49</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1431.180000</v>
+        <v>-1431.18</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>5590.403547</v>
+        <v>5590.4035469999999</v>
       </c>
       <c r="B5" s="1">
-        <v>1.552890</v>
+        <v>1.5528900000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>898.807000</v>
+        <v>898.80700000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.236000</v>
+        <v>-200.23599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5600.797022</v>
+        <v>5600.7970219999997</v>
       </c>
       <c r="G5" s="1">
         <v>1.555777</v>
       </c>
       <c r="H5" s="1">
-        <v>917.044000</v>
+        <v>917.04399999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.117000</v>
+        <v>-169.11699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>5611.601873</v>
+        <v>5611.6018729999996</v>
       </c>
       <c r="L5" s="1">
         <v>1.558778</v>
       </c>
       <c r="M5" s="1">
-        <v>939.836000</v>
+        <v>939.83600000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.798000</v>
+        <v>-119.798</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>5622.455329</v>
+        <v>5622.4553290000003</v>
       </c>
       <c r="Q5" s="1">
         <v>1.561793</v>
       </c>
       <c r="R5" s="1">
-        <v>946.733000</v>
+        <v>946.73299999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>5633.023588</v>
@@ -1312,617 +1728,617 @@
         <v>1.564729</v>
       </c>
       <c r="W5" s="1">
-        <v>953.090000</v>
+        <v>953.09</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.190300</v>
+        <v>-88.190299999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>5643.458919</v>
+        <v>5643.4589189999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.567627</v>
+        <v>1.5676270000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.938000</v>
+        <v>959.93799999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.412700</v>
+        <v>-76.412700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>5654.286089</v>
+        <v>5654.2860890000002</v>
       </c>
       <c r="AF5" s="1">
         <v>1.570635</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.559000</v>
+        <v>964.55899999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.186600</v>
+        <v>-74.186599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>5664.661897</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.573517</v>
+        <v>1.5735170000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.668000</v>
+        <v>971.66800000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.784600</v>
+        <v>-78.784599999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>5675.324397</v>
+        <v>5675.3243970000003</v>
       </c>
       <c r="AP5" s="1">
         <v>1.576479</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.689000</v>
+        <v>979.68899999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.219000</v>
+        <v>-90.218999999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>5686.360877</v>
+        <v>5686.3608770000001</v>
       </c>
       <c r="AU5" s="1">
         <v>1.579545</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.406000</v>
+        <v>989.40599999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.605000</v>
+        <v>-107.605</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>5697.503006</v>
+        <v>5697.5030059999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.582640</v>
+        <v>1.58264</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.514000</v>
+        <v>997.51400000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-122.996000</v>
+        <v>-122.996</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>5708.500833</v>
+        <v>5708.5008330000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.585695</v>
+        <v>1.5856950000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.099000</v>
+        <v>-194.09899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>5719.269441</v>
+        <v>5719.2694410000004</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.588686</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.200000</v>
+        <v>1100.2</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.241000</v>
+        <v>-310.24099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>5729.813396</v>
+        <v>5729.8133959999996</v>
       </c>
       <c r="BO5" s="1">
         <v>1.591615</v>
       </c>
       <c r="BP5" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-494.659000</v>
+        <v>-494.65899999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>5740.626182</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.594618</v>
+        <v>1.5946180000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1325.960000</v>
+        <v>1325.96</v>
       </c>
       <c r="BV5" s="1">
-        <v>-698.266000</v>
+        <v>-698.26599999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>5751.421620</v>
+        <v>5751.4216200000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.597617</v>
+        <v>1.5976170000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1461.150000</v>
+        <v>1461.15</v>
       </c>
       <c r="CA5" s="1">
-        <v>-915.186000</v>
+        <v>-915.18600000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>5762.551336</v>
+        <v>5762.5513360000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.600709</v>
+        <v>1.6007089999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1818.260000</v>
+        <v>1818.26</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1432.800000</v>
+        <v>-1432.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>5591.085851</v>
+        <v>5591.0858509999998</v>
       </c>
       <c r="B6" s="1">
-        <v>1.553079</v>
+        <v>1.5530790000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>898.503000</v>
+        <v>898.50300000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.395000</v>
+        <v>-200.39500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>5601.499357</v>
+        <v>5601.4993569999997</v>
       </c>
       <c r="G6" s="1">
-        <v>1.555972</v>
+        <v>1.5559719999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>916.987000</v>
+        <v>916.98699999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.887000</v>
+        <v>-168.887</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>5611.946591</v>
+        <v>5611.9465909999999</v>
       </c>
       <c r="L6" s="1">
-        <v>1.558874</v>
+        <v>1.5588740000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>939.902000</v>
+        <v>939.90200000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.794000</v>
+        <v>-119.794</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5622.801569</v>
+        <v>5622.8015690000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.561889</v>
+        <v>1.5618890000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>946.716000</v>
+        <v>946.71600000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>5633.367315</v>
+        <v>5633.3673150000004</v>
       </c>
       <c r="V6" s="1">
         <v>1.564824</v>
       </c>
       <c r="W6" s="1">
-        <v>953.035000</v>
+        <v>953.03499999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.140300</v>
+        <v>-88.140299999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>5644.116613</v>
+        <v>5644.1166130000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.567810</v>
+        <v>1.5678099999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.988000</v>
+        <v>959.98800000000006</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.415500</v>
+        <v>-76.415499999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>5654.658584</v>
+        <v>5654.6585839999998</v>
       </c>
       <c r="AF6" s="1">
         <v>1.570738</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.558000</v>
+        <v>964.55799999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.173100</v>
+        <v>-74.173100000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5665.049769</v>
+        <v>5665.0497690000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.573625</v>
+        <v>1.5736250000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.667000</v>
+        <v>971.66700000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.784100</v>
+        <v>-78.784099999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>5675.683004</v>
+        <v>5675.6830040000004</v>
       </c>
       <c r="AP6" s="1">
         <v>1.576579</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.683000</v>
+        <v>979.68299999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.185700</v>
+        <v>-90.185699999999997</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>5686.723980</v>
+        <v>5686.7239799999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.579646</v>
+        <v>1.5796460000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.405000</v>
+        <v>989.40499999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.586000</v>
+        <v>-107.586</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>5697.862606</v>
+        <v>5697.8626059999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.582740</v>
+        <v>1.58274</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.527000</v>
+        <v>997.52700000000004</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.003000</v>
+        <v>-123.003</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>5708.926388</v>
+        <v>5708.9263879999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.585813</v>
+        <v>1.5858129999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.095000</v>
+        <v>-194.095</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>5719.771393</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.588825</v>
+        <v>1.5888249999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.235000</v>
+        <v>-310.23500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>5730.222595</v>
+        <v>5730.2225950000002</v>
       </c>
       <c r="BO6" s="1">
         <v>1.591728</v>
       </c>
       <c r="BP6" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-494.630000</v>
+        <v>-494.63</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>5741.054725</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.594737</v>
+        <v>1.5947370000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1325.990000</v>
+        <v>1325.99</v>
       </c>
       <c r="BV6" s="1">
-        <v>-698.275000</v>
+        <v>-698.27499999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>5751.845724</v>
+        <v>5751.8457239999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.597735</v>
+        <v>1.5977349999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1461.130000</v>
+        <v>1461.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-915.148000</v>
+        <v>-915.14800000000002</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>5763.092968</v>
+        <v>5763.0929679999999</v>
       </c>
       <c r="CD6" s="1">
         <v>1.600859</v>
       </c>
       <c r="CE6" s="1">
-        <v>1818.280000</v>
+        <v>1818.28</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1430.760000</v>
+        <v>-1430.76</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>5591.429579</v>
+        <v>5591.4295789999996</v>
       </c>
       <c r="B7" s="1">
         <v>1.553175</v>
       </c>
       <c r="C7" s="1">
-        <v>898.680000</v>
+        <v>898.68</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.379000</v>
+        <v>-200.37899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>5601.841597</v>
+        <v>5601.8415969999996</v>
       </c>
       <c r="G7" s="1">
-        <v>1.556067</v>
+        <v>1.5560670000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>916.748000</v>
+        <v>916.74800000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.424000</v>
+        <v>-169.42400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>5612.295279</v>
+        <v>5612.2952789999999</v>
       </c>
       <c r="L7" s="1">
-        <v>1.558971</v>
+        <v>1.5589710000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>940.072000</v>
+        <v>940.072</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.774000</v>
+        <v>-119.774</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>5623.456257</v>
+        <v>5623.4562569999998</v>
       </c>
       <c r="Q7" s="1">
         <v>1.562071</v>
       </c>
       <c r="R7" s="1">
-        <v>946.690000</v>
+        <v>946.69</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.324000</v>
+        <v>-103.324</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>5634.022066</v>
+        <v>5634.0220660000005</v>
       </c>
       <c r="V7" s="1">
-        <v>1.565006</v>
+        <v>1.5650059999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>953.127000</v>
+        <v>953.12699999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.148200</v>
+        <v>-88.148200000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>5644.503027</v>
+        <v>5644.5030269999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.567918</v>
+        <v>1.5679179999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.993000</v>
+        <v>959.99300000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.426200</v>
+        <v>-76.426199999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>5655.002808</v>
+        <v>5655.0028080000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.570834</v>
+        <v>1.5708340000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.556000</v>
+        <v>964.55600000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.206200</v>
+        <v>-74.206199999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>5665.397465</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.573722</v>
+        <v>1.5737220000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.639000</v>
+        <v>971.63900000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.831600</v>
+        <v>-78.831599999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>5676.045101</v>
+        <v>5676.0451009999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.576679</v>
+        <v>1.5766789999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.688000</v>
+        <v>979.68799999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.203500</v>
+        <v>-90.203500000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>5687.142076</v>
+        <v>5687.1420760000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.579762</v>
+        <v>1.5797620000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.403000</v>
+        <v>989.40300000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.612000</v>
+        <v>-107.61199999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>5698.279768</v>
+        <v>5698.2797680000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.582855</v>
+        <v>1.5828549999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.509000</v>
+        <v>997.50900000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.013000</v>
+        <v>-123.01300000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>5709.224494</v>
@@ -1931,330 +2347,330 @@
         <v>1.585896</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.091000</v>
+        <v>-194.09100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>5720.036257</v>
+        <v>5720.0362569999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.588899</v>
+        <v>1.5888990000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.246000</v>
+        <v>-310.24599999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>5730.615427</v>
+        <v>5730.6154269999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.591838</v>
+        <v>1.5918380000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-494.647000</v>
+        <v>-494.64699999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>5741.482784</v>
+        <v>5741.4827839999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.594856</v>
+        <v>1.5948560000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1326.030000</v>
+        <v>1326.03</v>
       </c>
       <c r="BV7" s="1">
-        <v>-698.303000</v>
+        <v>-698.303</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>5752.266791</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.597852</v>
+        <v>1.5978520000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1461.080000</v>
+        <v>1461.08</v>
       </c>
       <c r="CA7" s="1">
-        <v>-915.189000</v>
+        <v>-915.18899999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>5763.632152</v>
+        <v>5763.6321520000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.601009</v>
+        <v>1.6010089999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1817.500000</v>
+        <v>1817.5</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1432.640000</v>
+        <v>-1432.64</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>5591.773802</v>
+        <v>5591.7738019999997</v>
       </c>
       <c r="B8" s="1">
-        <v>1.553271</v>
+        <v>1.5532710000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>898.759000</v>
+        <v>898.75900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.204000</v>
+        <v>-200.20400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>5602.488913</v>
+        <v>5602.4889130000001</v>
       </c>
       <c r="G8" s="1">
-        <v>1.556247</v>
+        <v>1.5562469999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.772000</v>
+        <v>916.77200000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.494000</v>
+        <v>-169.494</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>5612.945534</v>
+        <v>5612.9455340000004</v>
       </c>
       <c r="L8" s="1">
-        <v>1.559152</v>
+        <v>1.5591520000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.206000</v>
+        <v>940.20600000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.773000</v>
+        <v>-119.773</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>5623.848592</v>
+        <v>5623.8485920000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.562180</v>
+        <v>1.5621799999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>946.710000</v>
+        <v>946.71</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.267000</v>
+        <v>-103.267</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>5634.398003</v>
+        <v>5634.3980030000002</v>
       </c>
       <c r="V8" s="1">
-        <v>1.565111</v>
+        <v>1.5651109999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.109000</v>
+        <v>953.10900000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.086000</v>
+        <v>-88.085999999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>5644.851718</v>
+        <v>5644.8517179999999</v>
       </c>
       <c r="AA8" s="1">
         <v>1.568014</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.934000</v>
+        <v>959.93399999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.316800</v>
+        <v>-76.316800000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>5655.347708</v>
+        <v>5655.3477080000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.570930</v>
+        <v>1.5709299999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.484000</v>
+        <v>964.48400000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.179500</v>
+        <v>-74.179500000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>5665.747642</v>
+        <v>5665.7476420000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.573819</v>
+        <v>1.5738190000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.646000</v>
+        <v>971.64599999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.824700</v>
+        <v>-78.824700000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>5676.467178</v>
+        <v>5676.4671779999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.576796</v>
+        <v>1.5767960000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.674000</v>
+        <v>979.67399999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.213500</v>
+        <v>-90.213499999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>5687.455547</v>
+        <v>5687.4555469999996</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.579849</v>
+        <v>1.5798490000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.412000</v>
+        <v>989.41200000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.584000</v>
+        <v>-107.584</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>5698.577838</v>
+        <v>5698.5778380000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>1.582938</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.515000</v>
+        <v>997.51499999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.015000</v>
+        <v>-123.015</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>5709.583102</v>
+        <v>5709.5831019999996</v>
       </c>
       <c r="BE8" s="1">
         <v>1.585995</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.113000</v>
+        <v>-194.113</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>5720.422641</v>
+        <v>5720.4226410000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.589006</v>
+        <v>1.5890059999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.267000</v>
+        <v>-310.267</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>5731.035538</v>
+        <v>5731.0355380000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.591954</v>
+        <v>1.5919540000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1206.110000</v>
+        <v>1206.1099999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-494.647000</v>
+        <v>-494.64699999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>5741.908866</v>
+        <v>5741.9088659999998</v>
       </c>
       <c r="BT8" s="1">
         <v>1.594975</v>
       </c>
       <c r="BU8" s="1">
-        <v>1325.980000</v>
+        <v>1325.98</v>
       </c>
       <c r="BV8" s="1">
-        <v>-698.286000</v>
+        <v>-698.28599999999994</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>5752.691861</v>
+        <v>5752.6918610000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.597970</v>
+        <v>1.5979699999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1461.090000</v>
+        <v>1461.09</v>
       </c>
       <c r="CA8" s="1">
-        <v>-915.165000</v>
+        <v>-915.16499999999996</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>5764.172262</v>
@@ -2263,210 +2679,210 @@
         <v>1.601159</v>
       </c>
       <c r="CE8" s="1">
-        <v>1818.810000</v>
+        <v>1818.81</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1432.100000</v>
+        <v>-1432.1</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>5592.424094</v>
       </c>
       <c r="B9" s="1">
-        <v>1.553451</v>
+        <v>1.5534509999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>898.754000</v>
+        <v>898.75400000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.257000</v>
+        <v>-200.25700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>5602.876780</v>
+        <v>5602.8767799999996</v>
       </c>
       <c r="G9" s="1">
-        <v>1.556355</v>
+        <v>1.5563549999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>916.781000</v>
+        <v>916.78099999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.155000</v>
+        <v>-169.155</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>5613.329437</v>
+        <v>5613.3294370000003</v>
       </c>
       <c r="L9" s="1">
         <v>1.559258</v>
       </c>
       <c r="M9" s="1">
-        <v>939.854000</v>
+        <v>939.85400000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.894000</v>
+        <v>-119.89400000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>5624.196784</v>
+        <v>5624.1967839999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.562277</v>
+        <v>1.5622769999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.774000</v>
+        <v>946.774</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.316000</v>
+        <v>-103.316</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>5634.739249</v>
+        <v>5634.7392490000002</v>
       </c>
       <c r="V9" s="1">
         <v>1.565205</v>
       </c>
       <c r="W9" s="1">
-        <v>953.136000</v>
+        <v>953.13599999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.173100</v>
+        <v>-88.173100000000005</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>5645.200371</v>
+        <v>5645.2003709999999</v>
       </c>
       <c r="AA9" s="1">
         <v>1.568111</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.935000</v>
+        <v>959.93499999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.400800</v>
+        <v>-76.400800000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>5655.763206</v>
+        <v>5655.7632059999996</v>
       </c>
       <c r="AF9" s="1">
         <v>1.571045</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.547000</v>
+        <v>964.54700000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.194000</v>
+        <v>-74.194000000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>5666.163288</v>
+        <v>5666.1632879999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.573934</v>
+        <v>1.5739339999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.659000</v>
+        <v>971.65899999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.809000</v>
+        <v>-78.808999999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>5676.767258</v>
+        <v>5676.7672579999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.576880</v>
+        <v>1.5768800000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.671000</v>
+        <v>979.67100000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.208800</v>
+        <v>-90.208799999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>5687.821126</v>
+        <v>5687.8211259999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.579950</v>
+        <v>1.57995</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.401000</v>
+        <v>989.40099999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.612000</v>
+        <v>-107.61199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>5698.934956</v>
+        <v>5698.9349560000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>1.583037</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.517000</v>
+        <v>997.51700000000005</v>
       </c>
       <c r="BB9" s="1">
-        <v>-122.992000</v>
+        <v>-122.992</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>5709.944685</v>
+        <v>5709.9446850000004</v>
       </c>
       <c r="BE9" s="1">
         <v>1.586096</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.080000</v>
+        <v>-194.08</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>5721.175230</v>
+        <v>5721.1752299999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.589215</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.245000</v>
+        <v>-310.245</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>5731.454659</v>
@@ -2475,75 +2891,75 @@
         <v>1.592071</v>
       </c>
       <c r="BP9" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-494.667000</v>
+        <v>-494.66699999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>5742.326499</v>
+        <v>5742.3264989999998</v>
       </c>
       <c r="BT9" s="1">
         <v>1.595091</v>
       </c>
       <c r="BU9" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="BV9" s="1">
-        <v>-698.384000</v>
+        <v>-698.38400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>5753.109989</v>
+        <v>5753.1099889999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.598086</v>
+        <v>1.5980859999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1461.130000</v>
+        <v>1461.13</v>
       </c>
       <c r="CA9" s="1">
-        <v>-915.255000</v>
+        <v>-915.255</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>5764.710422</v>
+        <v>5764.7104220000001</v>
       </c>
       <c r="CD9" s="1">
         <v>1.601308</v>
       </c>
       <c r="CE9" s="1">
-        <v>1817.520000</v>
+        <v>1817.52</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1431.600000</v>
+        <v>-1431.6</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>5592.808985</v>
+        <v>5592.8089849999997</v>
       </c>
       <c r="B10" s="1">
         <v>1.553558</v>
       </c>
       <c r="C10" s="1">
-        <v>898.808000</v>
+        <v>898.80799999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.417000</v>
+        <v>-200.417</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>5603.221963</v>
@@ -2552,375 +2968,375 @@
         <v>1.556451</v>
       </c>
       <c r="H10" s="1">
-        <v>916.226000</v>
+        <v>916.226</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.441000</v>
+        <v>-169.441</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>5613.676141</v>
+        <v>5613.6761409999999</v>
       </c>
       <c r="L10" s="1">
-        <v>1.559354</v>
+        <v>1.5593539999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.924000</v>
+        <v>939.92399999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.670000</v>
+        <v>-119.67</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>5624.545968</v>
+        <v>5624.5459680000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.562374</v>
+        <v>1.5623739999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.730000</v>
+        <v>946.73</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.323000</v>
+        <v>-103.32299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>5635.084465</v>
+        <v>5635.0844649999999</v>
       </c>
       <c r="V10" s="1">
-        <v>1.565301</v>
+        <v>1.5653010000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>953.122000</v>
+        <v>953.12199999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.175800</v>
+        <v>-88.175799999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>5645.620978</v>
+        <v>5645.6209779999999</v>
       </c>
       <c r="AA10" s="1">
         <v>1.568228</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.882000</v>
+        <v>959.88199999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.566100</v>
+        <v>-76.566100000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>5656.044937</v>
+        <v>5656.0449369999997</v>
       </c>
       <c r="AF10" s="1">
         <v>1.571124</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.553000</v>
+        <v>964.553</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.190500</v>
+        <v>-74.1905</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>5666.451465</v>
+        <v>5666.4514650000001</v>
       </c>
       <c r="AK10" s="1">
         <v>1.574014</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.679000</v>
+        <v>971.67899999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.801500</v>
+        <v>-78.801500000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>5677.126361</v>
+        <v>5677.1263609999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.576980</v>
+        <v>1.57698</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.699000</v>
+        <v>979.69899999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.208200</v>
+        <v>-90.208200000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>5688.180732</v>
+        <v>5688.1807319999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.580050</v>
+        <v>1.58005</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.393000</v>
+        <v>989.39300000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.596000</v>
+        <v>-107.596</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>5699.297567</v>
+        <v>5699.2975669999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.583138</v>
+        <v>1.5831379999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.515000</v>
+        <v>997.51499999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.015000</v>
+        <v>-123.015</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>5710.670829</v>
+        <v>5710.6708289999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.586297</v>
+        <v>1.5862970000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.260000</v>
+        <v>1035.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.110000</v>
+        <v>-194.11</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>5721.575839</v>
+        <v>5721.5758390000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.589327</v>
+        <v>1.5893269999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.241000</v>
+        <v>-310.24099999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>5731.855921</v>
+        <v>5731.8559210000003</v>
       </c>
       <c r="BO10" s="1">
         <v>1.592182</v>
       </c>
       <c r="BP10" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-494.656000</v>
+        <v>-494.65600000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>5742.753523</v>
+        <v>5742.7535230000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.595209</v>
+        <v>1.5952090000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="BV10" s="1">
-        <v>-698.320000</v>
+        <v>-698.32</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>5753.553909</v>
+        <v>5753.5539090000002</v>
       </c>
       <c r="BY10" s="1">
         <v>1.598209</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1461.120000</v>
+        <v>1461.12</v>
       </c>
       <c r="CA10" s="1">
-        <v>-915.155000</v>
+        <v>-915.15499999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>5765.560070</v>
+        <v>5765.5600700000005</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.601544</v>
+        <v>1.6015440000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1818.790000</v>
+        <v>1818.79</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1431.780000</v>
+        <v>-1431.78</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>5593.140777</v>
+        <v>5593.1407769999996</v>
       </c>
       <c r="B11" s="1">
-        <v>1.553650</v>
+        <v>1.55365</v>
       </c>
       <c r="C11" s="1">
-        <v>898.888000</v>
+        <v>898.88800000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.822000</v>
+        <v>-199.822</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5603.569660</v>
+        <v>5603.5696600000001</v>
       </c>
       <c r="G11" s="1">
-        <v>1.556547</v>
+        <v>1.5565469999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>916.431000</v>
+        <v>916.43100000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.999000</v>
+        <v>-168.999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>5614.020893</v>
+        <v>5614.0208929999999</v>
       </c>
       <c r="L11" s="1">
-        <v>1.559450</v>
+        <v>1.55945</v>
       </c>
       <c r="M11" s="1">
-        <v>939.925000</v>
+        <v>939.92499999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.754000</v>
+        <v>-119.754</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>5624.975502</v>
+        <v>5624.9755020000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.562493</v>
+        <v>1.5624929999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>946.744000</v>
+        <v>946.74400000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.320000</v>
+        <v>-103.32</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>5635.767955</v>
+        <v>5635.7679550000003</v>
       </c>
       <c r="V11" s="1">
         <v>1.565491</v>
       </c>
       <c r="W11" s="1">
-        <v>952.995000</v>
+        <v>952.995</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.207300</v>
+        <v>-88.207300000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>5645.914114</v>
+        <v>5645.9141140000002</v>
       </c>
       <c r="AA11" s="1">
         <v>1.568309</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.049000</v>
+        <v>960.04899999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.451400</v>
+        <v>-76.451400000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>5656.387169</v>
+        <v>5656.3871689999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.571219</v>
+        <v>1.5712189999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.553000</v>
+        <v>964.553</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.198000</v>
+        <v>-74.197999999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>5666.801639</v>
+        <v>5666.8016390000003</v>
       </c>
       <c r="AK11" s="1">
         <v>1.574112</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.686000</v>
+        <v>971.68600000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.807700</v>
+        <v>-78.807699999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>5677.485992</v>
+        <v>5677.4859919999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.577079</v>
+        <v>1.5770789999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.644000</v>
+        <v>979.64400000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.225700</v>
+        <v>-90.225700000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>5688.913321</v>
@@ -2929,135 +3345,135 @@
         <v>1.580254</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.403000</v>
+        <v>989.40300000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.584000</v>
+        <v>-107.584</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>5700.020203</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.583339</v>
+        <v>1.5833390000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.511000</v>
+        <v>997.51099999999997</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.011000</v>
+        <v>-123.011</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>5711.047789</v>
+        <v>5711.0477890000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.586402</v>
+        <v>1.5864020000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.069000</v>
+        <v>-194.06899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>5721.949822</v>
+        <v>5721.9498219999996</v>
       </c>
       <c r="BJ11" s="1">
         <v>1.589431</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.224000</v>
+        <v>-310.22399999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>5732.248753</v>
+        <v>5732.2487529999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.592291</v>
+        <v>1.5922909999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1206.120000</v>
+        <v>1206.1199999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-494.683000</v>
+        <v>-494.68299999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>5743.468291</v>
+        <v>5743.4682910000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.595408</v>
+        <v>1.5954079999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1326.000000</v>
+        <v>1326</v>
       </c>
       <c r="BV11" s="1">
-        <v>-698.318000</v>
+        <v>-698.31799999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>5753.996868</v>
+        <v>5753.9968680000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.598332</v>
+        <v>1.5983320000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1461.080000</v>
+        <v>1461.08</v>
       </c>
       <c r="CA11" s="1">
-        <v>-915.233000</v>
+        <v>-915.23299999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>5765.790708</v>
+        <v>5765.7907080000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.601609</v>
+        <v>1.6016090000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1818.810000</v>
+        <v>1818.81</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1431.660000</v>
+        <v>-1431.66</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>5593.482552</v>
+        <v>5593.4825520000004</v>
       </c>
       <c r="B12" s="1">
-        <v>1.553745</v>
+        <v>1.5537449999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>898.725000</v>
+        <v>898.72500000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.431000</v>
+        <v>-200.43100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>5603.991755</v>
@@ -3066,1191 +3482,1191 @@
         <v>1.556664</v>
       </c>
       <c r="H12" s="1">
-        <v>916.590000</v>
+        <v>916.59</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.953000</v>
+        <v>-168.953</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5614.443452</v>
+        <v>5614.4434520000004</v>
       </c>
       <c r="L12" s="1">
-        <v>1.559568</v>
+        <v>1.5595680000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>939.893000</v>
+        <v>939.89300000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.747000</v>
+        <v>-119.747</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>5625.255246</v>
+        <v>5625.2552459999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.562571</v>
+        <v>1.5625709999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>946.714000</v>
+        <v>946.71400000000006</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.345000</v>
+        <v>-103.345</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5636.112672</v>
+        <v>5636.1126720000002</v>
       </c>
       <c r="V12" s="1">
-        <v>1.565587</v>
+        <v>1.5655870000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>953.050000</v>
+        <v>953.05</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.153900</v>
+        <v>-88.153899999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>5646.262338</v>
+        <v>5646.2623380000005</v>
       </c>
       <c r="AA12" s="1">
         <v>1.568406</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.002000</v>
+        <v>960.00199999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.422100</v>
+        <v>-76.4221</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>5656.730390</v>
+        <v>5656.7303899999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.571314</v>
+        <v>1.5713140000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.560000</v>
+        <v>964.56</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.190700</v>
+        <v>-74.190700000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5667.146706</v>
+        <v>5667.1467060000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.574207</v>
+        <v>1.5742069999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.676000</v>
+        <v>971.67600000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.810000</v>
+        <v>-78.81</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>5678.211113</v>
+        <v>5678.2111130000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.577281</v>
+        <v>1.5772809999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.676000</v>
+        <v>979.67600000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.209900</v>
+        <v>-90.209900000000005</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>5689.297690</v>
+        <v>5689.2976900000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.580360</v>
+        <v>1.58036</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.406000</v>
+        <v>989.40599999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.604000</v>
+        <v>-107.604</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>5700.396667</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.583444</v>
+        <v>1.5834440000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.512000</v>
+        <v>997.51199999999994</v>
       </c>
       <c r="BB12" s="1">
-        <v>-122.985000</v>
+        <v>-122.985</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>5711.429182</v>
+        <v>5711.4291819999999</v>
       </c>
       <c r="BE12" s="1">
         <v>1.586508</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.111000</v>
+        <v>-194.11099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>5722.630829</v>
+        <v>5722.6308289999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.589620</v>
+        <v>1.58962</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.235000</v>
+        <v>-310.23500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>5732.976416</v>
+        <v>5732.9764160000004</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.592493</v>
+        <v>1.5924929999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-494.677000</v>
+        <v>-494.67700000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>5743.596739</v>
+        <v>5743.5967389999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.595444</v>
+        <v>1.5954440000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1325.970000</v>
+        <v>1325.97</v>
       </c>
       <c r="BV12" s="1">
-        <v>-698.360000</v>
+        <v>-698.36</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>5754.403060</v>
+        <v>5754.4030599999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.598445</v>
+        <v>1.5984449999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1461.140000</v>
+        <v>1461.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-915.259000</v>
+        <v>-915.25900000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>5766.312532</v>
+        <v>5766.3125319999999</v>
       </c>
       <c r="CD12" s="1">
         <v>1.601753</v>
       </c>
       <c r="CE12" s="1">
-        <v>1817.770000</v>
+        <v>1817.77</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1431.470000</v>
+        <v>-1431.47</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>5593.903263</v>
+        <v>5593.9032630000002</v>
       </c>
       <c r="B13" s="1">
-        <v>1.553862</v>
+        <v>1.5538620000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>898.525000</v>
+        <v>898.52499999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.179000</v>
+        <v>-200.179</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>5604.272490</v>
+        <v>5604.2724900000003</v>
       </c>
       <c r="G13" s="1">
-        <v>1.556742</v>
+        <v>1.5567420000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.703000</v>
+        <v>916.70299999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.130000</v>
+        <v>-169.13</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>5614.720220</v>
+        <v>5614.7202200000002</v>
       </c>
       <c r="L13" s="1">
-        <v>1.559645</v>
+        <v>1.5596449999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>939.941000</v>
+        <v>939.94100000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.855000</v>
+        <v>-119.855</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>5625.601949</v>
+        <v>5625.6019489999999</v>
       </c>
       <c r="Q13" s="1">
         <v>1.562667</v>
       </c>
       <c r="R13" s="1">
-        <v>946.708000</v>
+        <v>946.70799999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.323000</v>
+        <v>-103.32299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>5636.460863</v>
+        <v>5636.4608630000002</v>
       </c>
       <c r="V13" s="1">
-        <v>1.565684</v>
+        <v>1.5656840000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.097000</v>
+        <v>953.09699999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.125300</v>
+        <v>-88.125299999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>5646.610993</v>
+        <v>5646.6109930000002</v>
       </c>
       <c r="AA13" s="1">
         <v>1.568503</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.833000</v>
+        <v>959.83299999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.419700</v>
+        <v>-76.419700000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>5657.414866</v>
+        <v>5657.4148660000001</v>
       </c>
       <c r="AF13" s="1">
         <v>1.571504</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.553000</v>
+        <v>964.553</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.192400</v>
+        <v>-74.192400000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>5667.845717</v>
+        <v>5667.8457170000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.574402</v>
+        <v>1.5744020000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.664000</v>
+        <v>971.66399999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.818000</v>
+        <v>-78.817999999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>5678.589561</v>
+        <v>5678.5895609999998</v>
       </c>
       <c r="AP13" s="1">
         <v>1.577386</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.671000</v>
+        <v>979.67100000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.228800</v>
+        <v>-90.228800000000007</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>5689.661488</v>
+        <v>5689.6614879999997</v>
       </c>
       <c r="AU13" s="1">
         <v>1.580462</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.414000</v>
+        <v>989.41399999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.587000</v>
+        <v>-107.587</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>5700.785034</v>
+        <v>5700.7850340000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.583551</v>
+        <v>1.5835509999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.502000</v>
+        <v>997.50199999999995</v>
       </c>
       <c r="BB13" s="1">
-        <v>-122.988000</v>
+        <v>-122.988</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>5712.097819</v>
+        <v>5712.0978189999996</v>
       </c>
       <c r="BE13" s="1">
         <v>1.586694</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.105000</v>
+        <v>-194.10499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>5722.741746</v>
+        <v>5722.7417459999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.589650</v>
+        <v>1.58965</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.200000</v>
+        <v>1100.2</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>5733.095919</v>
+        <v>5733.0959190000003</v>
       </c>
       <c r="BO13" s="1">
         <v>1.592527</v>
       </c>
       <c r="BP13" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-494.653000</v>
+        <v>-494.65300000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>5744.035682</v>
+        <v>5744.0356819999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.595565</v>
+        <v>1.5955649999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1325.970000</v>
+        <v>1325.97</v>
       </c>
       <c r="BV13" s="1">
-        <v>-698.317000</v>
+        <v>-698.31700000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>5754.850985</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.598570</v>
+        <v>1.59857</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1461.090000</v>
+        <v>1461.09</v>
       </c>
       <c r="CA13" s="1">
-        <v>-915.217000</v>
+        <v>-915.21699999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>5766.828371</v>
+        <v>5766.8283709999996</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.601897</v>
+        <v>1.6018969999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1817.740000</v>
+        <v>1817.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1431.070000</v>
+        <v>-1431.07</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>5594.177943</v>
+        <v>5594.1779429999997</v>
       </c>
       <c r="B14" s="1">
         <v>1.553938</v>
       </c>
       <c r="C14" s="1">
-        <v>898.592000</v>
+        <v>898.59199999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.185000</v>
+        <v>-200.185</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>5604.618980</v>
+        <v>5604.6189800000002</v>
       </c>
       <c r="G14" s="1">
-        <v>1.556839</v>
+        <v>1.5568390000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>916.719000</v>
+        <v>916.71900000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.518000</v>
+        <v>-169.518</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>5615.065467</v>
+        <v>5615.0654670000004</v>
       </c>
       <c r="L14" s="1">
-        <v>1.559740</v>
+        <v>1.5597399999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>939.930000</v>
+        <v>939.93</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.754000</v>
+        <v>-119.754</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>5625.952654</v>
+        <v>5625.9526539999997</v>
       </c>
       <c r="Q14" s="1">
         <v>1.562765</v>
       </c>
       <c r="R14" s="1">
-        <v>946.721000</v>
+        <v>946.721</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.281000</v>
+        <v>-103.28100000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>5637.147822</v>
+        <v>5637.1478219999999</v>
       </c>
       <c r="V14" s="1">
         <v>1.565874</v>
       </c>
       <c r="W14" s="1">
-        <v>953.044000</v>
+        <v>953.04399999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.150100</v>
+        <v>-88.150099999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>5647.309361</v>
+        <v>5647.3093609999996</v>
       </c>
       <c r="AA14" s="1">
         <v>1.568697</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.877000</v>
+        <v>959.87699999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.428600</v>
+        <v>-76.428600000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>5657.762547</v>
+        <v>5657.7625470000003</v>
       </c>
       <c r="AF14" s="1">
         <v>1.571601</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.545000</v>
+        <v>964.54499999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.195600</v>
+        <v>-74.195599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>5668.196536</v>
+        <v>5668.1965360000004</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.574499</v>
+        <v>1.5744990000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.646000</v>
+        <v>971.64599999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.824000</v>
+        <v>-78.823999999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>5678.950151</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.577486</v>
+        <v>1.5774859999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.665000</v>
+        <v>979.66499999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.210300</v>
+        <v>-90.210300000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>5690.330856</v>
+        <v>5690.3308559999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.580647</v>
+        <v>1.5806469999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.427000</v>
+        <v>989.42700000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.606000</v>
+        <v>-107.60599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>5701.453145</v>
+        <v>5701.4531450000004</v>
       </c>
       <c r="AZ14" s="1">
         <v>1.583737</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.523000</v>
+        <v>997.52300000000002</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.002000</v>
+        <v>-123.002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>5712.514459</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.586810</v>
+        <v>1.5868100000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.104000</v>
+        <v>-194.10400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>5723.100540</v>
+        <v>5723.1005400000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.589750</v>
+        <v>1.58975</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.241000</v>
+        <v>-310.24099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>5733.490239</v>
+        <v>5733.4902389999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.592636</v>
+        <v>1.5926359999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1206.060000</v>
+        <v>1206.06</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-494.686000</v>
+        <v>-494.68599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>5744.461248</v>
+        <v>5744.4612479999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.595684</v>
+        <v>1.5956840000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1326.000000</v>
+        <v>1326</v>
       </c>
       <c r="BV14" s="1">
-        <v>-698.318000</v>
+        <v>-698.31799999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>5755.279986</v>
+        <v>5755.2799859999996</v>
       </c>
       <c r="BY14" s="1">
         <v>1.598689</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1461.110000</v>
+        <v>1461.11</v>
       </c>
       <c r="CA14" s="1">
-        <v>-915.230000</v>
+        <v>-915.23</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>5767.378898</v>
+        <v>5767.3788979999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.602050</v>
+        <v>1.60205</v>
       </c>
       <c r="CE14" s="1">
-        <v>1818.640000</v>
+        <v>1818.64</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1431.610000</v>
+        <v>-1431.61</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>5594.523164</v>
+        <v>5594.5231640000002</v>
       </c>
       <c r="B15" s="1">
-        <v>1.554034</v>
+        <v>1.5540339999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>898.733000</v>
+        <v>898.73299999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.269000</v>
+        <v>-200.26900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>5604.960937</v>
+        <v>5604.9609369999998</v>
       </c>
       <c r="G15" s="1">
         <v>1.556934</v>
       </c>
       <c r="H15" s="1">
-        <v>916.745000</v>
+        <v>916.745</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.909000</v>
+        <v>-169.90899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>5615.413166</v>
+        <v>5615.4131660000003</v>
       </c>
       <c r="L15" s="1">
-        <v>1.559837</v>
+        <v>1.5598369999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>939.937000</v>
+        <v>939.93700000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.625000</v>
+        <v>-119.625</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>5626.647052</v>
+        <v>5626.6470520000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.562958</v>
+        <v>1.5629580000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>946.755000</v>
+        <v>946.755</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.320000</v>
+        <v>-103.32</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>5637.497501</v>
+        <v>5637.4975009999998</v>
       </c>
       <c r="V15" s="1">
-        <v>1.565972</v>
+        <v>1.5659719999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>953.052000</v>
+        <v>953.05200000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.124700</v>
+        <v>-88.124700000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>5647.655601</v>
+        <v>5647.6556010000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.568793</v>
+        <v>1.5687930000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.026000</v>
+        <v>960.02599999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.511100</v>
+        <v>-76.511099999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>5658.106275</v>
+        <v>5658.1062750000001</v>
       </c>
       <c r="AF15" s="1">
         <v>1.571696</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.530000</v>
+        <v>964.53</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.168600</v>
+        <v>-74.168599999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>5668.540117</v>
+        <v>5668.5401169999996</v>
       </c>
       <c r="AK15" s="1">
         <v>1.574594</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.658000</v>
+        <v>971.65800000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.808900</v>
+        <v>-78.808899999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>5679.615814</v>
+        <v>5679.6158139999998</v>
       </c>
       <c r="AP15" s="1">
         <v>1.577671</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.668000</v>
+        <v>979.66800000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.202000</v>
+        <v>-90.201999999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>5690.788167</v>
+        <v>5690.7881669999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.580774</v>
+        <v>1.5807739999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.416000</v>
+        <v>989.41600000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.593000</v>
+        <v>-107.593</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>5701.861887</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.583851</v>
+        <v>1.5838509999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.524000</v>
+        <v>997.524</v>
       </c>
       <c r="BB15" s="1">
-        <v>-122.980000</v>
+        <v>-122.98</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>5712.899322</v>
+        <v>5712.8993220000002</v>
       </c>
       <c r="BE15" s="1">
         <v>1.586916</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.107000</v>
+        <v>-194.107</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>5723.476012</v>
+        <v>5723.4760120000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.589854</v>
+        <v>1.5898540000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.250000</v>
+        <v>-310.25</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>5733.912831</v>
+        <v>5733.9128309999996</v>
       </c>
       <c r="BO15" s="1">
         <v>1.592754</v>
       </c>
       <c r="BP15" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-494.671000</v>
+        <v>-494.67099999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>5744.874912</v>
+        <v>5744.8749120000002</v>
       </c>
       <c r="BT15" s="1">
         <v>1.595799</v>
       </c>
       <c r="BU15" s="1">
-        <v>1325.970000</v>
+        <v>1325.97</v>
       </c>
       <c r="BV15" s="1">
-        <v>-698.311000</v>
+        <v>-698.31100000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>5755.702577</v>
       </c>
       <c r="BY15" s="1">
-        <v>1.598806</v>
+        <v>1.5988059999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1461.100000</v>
+        <v>1461.1</v>
       </c>
       <c r="CA15" s="1">
-        <v>-915.292000</v>
+        <v>-915.29200000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>5767.909618</v>
+        <v>5767.9096179999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.602197</v>
+        <v>1.6021970000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1817.430000</v>
+        <v>1817.43</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1431.380000</v>
+        <v>-1431.38</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>5594.864374</v>
+        <v>5594.8643739999998</v>
       </c>
       <c r="B16" s="1">
-        <v>1.554129</v>
+        <v>1.5541290000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>898.753000</v>
+        <v>898.75300000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.417000</v>
+        <v>-200.417</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>5605.648393</v>
+        <v>5605.6483930000004</v>
       </c>
       <c r="G16" s="1">
-        <v>1.557125</v>
+        <v>1.5571250000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.571000</v>
+        <v>916.57100000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.370000</v>
+        <v>-169.37</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>5616.108027</v>
+        <v>5616.1080270000002</v>
       </c>
       <c r="L16" s="1">
-        <v>1.560030</v>
+        <v>1.56003</v>
       </c>
       <c r="M16" s="1">
-        <v>940.132000</v>
+        <v>940.13199999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.647000</v>
+        <v>-119.64700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>5626.997691</v>
+        <v>5626.9976909999996</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.563055</v>
+        <v>1.5630550000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.735000</v>
+        <v>946.73500000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.307000</v>
+        <v>-103.307</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>5637.835774</v>
+        <v>5637.8357740000001</v>
       </c>
       <c r="V16" s="1">
         <v>1.566065</v>
       </c>
       <c r="W16" s="1">
-        <v>952.974000</v>
+        <v>952.97400000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.136900</v>
+        <v>-88.136899999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>5648.005248</v>
+        <v>5648.0052480000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.568890</v>
+        <v>1.5688899999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.961000</v>
+        <v>959.96100000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.421700</v>
+        <v>-76.421700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>5658.765955</v>
+        <v>5658.7659549999998</v>
       </c>
       <c r="AF16" s="1">
         <v>1.571879</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.525000</v>
+        <v>964.52499999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.204200</v>
+        <v>-74.2042</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5669.247411</v>
+        <v>5669.2474110000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.574791</v>
+        <v>1.5747910000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.682000</v>
+        <v>971.68200000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.812200</v>
+        <v>-78.812200000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>5680.031462</v>
+        <v>5680.0314619999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.577787</v>
+        <v>1.5777870000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.667000</v>
+        <v>979.66700000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.197400</v>
+        <v>-90.197400000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>5691.150247</v>
+        <v>5691.1502469999996</v>
       </c>
       <c r="AU16" s="1">
         <v>1.580875</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.402000</v>
+        <v>989.40200000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.602000</v>
+        <v>-107.602</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>5702.248232</v>
+        <v>5702.2482319999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.583958</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.522000</v>
+        <v>997.52200000000005</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.006000</v>
+        <v>-123.006</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>5713.263883</v>
+        <v>5713.2638829999996</v>
       </c>
       <c r="BE16" s="1">
         <v>1.587018</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.085000</v>
+        <v>-194.08500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>5723.894636</v>
@@ -4259,13 +4675,13 @@
         <v>1.589971</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.242000</v>
+        <v>-310.24200000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>5734.325519</v>
@@ -4274,90 +4690,90 @@
         <v>1.592868</v>
       </c>
       <c r="BP16" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-494.703000</v>
+        <v>-494.70299999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>5745.304474</v>
+        <v>5745.3044739999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.595918</v>
+        <v>1.5959179999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1325.960000</v>
+        <v>1325.96</v>
       </c>
       <c r="BV16" s="1">
-        <v>-698.280000</v>
+        <v>-698.28</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>5756.125666</v>
+        <v>5756.1256659999999</v>
       </c>
       <c r="BY16" s="1">
         <v>1.598924</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1461.120000</v>
+        <v>1461.12</v>
       </c>
       <c r="CA16" s="1">
-        <v>-915.210000</v>
+        <v>-915.21</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>5768.428928</v>
+        <v>5768.4289280000003</v>
       </c>
       <c r="CD16" s="1">
         <v>1.602341</v>
       </c>
       <c r="CE16" s="1">
-        <v>1818.110000</v>
+        <v>1818.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1432.850000</v>
+        <v>-1432.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>5595.548390</v>
+        <v>5595.5483899999999</v>
       </c>
       <c r="B17" s="1">
         <v>1.554319</v>
       </c>
       <c r="C17" s="1">
-        <v>898.549000</v>
+        <v>898.54899999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.097000</v>
+        <v>-200.09700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>5605.997575</v>
+        <v>5605.9975750000003</v>
       </c>
       <c r="G17" s="1">
-        <v>1.557222</v>
+        <v>1.5572220000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.527000</v>
+        <v>916.52700000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.126000</v>
+        <v>-169.126</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>5616.451755</v>
@@ -4366,1191 +4782,1191 @@
         <v>1.560125</v>
       </c>
       <c r="M17" s="1">
-        <v>940.026000</v>
+        <v>940.02599999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.582000</v>
+        <v>-119.58199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>5627.348363</v>
+        <v>5627.3483630000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.563152</v>
+        <v>1.5631520000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.749000</v>
+        <v>946.74900000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>5638.489996</v>
+        <v>5638.4899960000002</v>
       </c>
       <c r="V17" s="1">
-        <v>1.566247</v>
+        <v>1.5662469999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>953.099000</v>
+        <v>953.09900000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.159900</v>
+        <v>-88.159899999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>5648.663935</v>
+        <v>5648.6639349999996</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.569073</v>
+        <v>1.5690729999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.831000</v>
+        <v>959.83100000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.395300</v>
+        <v>-76.395300000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>5659.143441</v>
+        <v>5659.1434410000002</v>
       </c>
       <c r="AF17" s="1">
         <v>1.571984</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.538000</v>
+        <v>964.53800000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.194200</v>
+        <v>-74.194199999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>5669.585683</v>
+        <v>5669.5856830000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.574885</v>
+        <v>1.5748850000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.660000</v>
+        <v>971.66</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.829600</v>
+        <v>-78.829599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>5680.414341</v>
+        <v>5680.4143409999997</v>
       </c>
       <c r="AP17" s="1">
         <v>1.577893</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.668000</v>
+        <v>979.66800000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.202800</v>
+        <v>-90.202799999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>5691.518278</v>
+        <v>5691.5182779999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.580977</v>
+        <v>1.5809770000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.405000</v>
+        <v>989.40499999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.609000</v>
+        <v>-107.60899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>5702.662394</v>
+        <v>5702.6623939999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.584073</v>
+        <v>1.5840730000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.527000</v>
+        <v>997.52700000000004</v>
       </c>
       <c r="BB17" s="1">
-        <v>-122.991000</v>
+        <v>-122.991</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>5713.675818</v>
+        <v>5713.6758179999997</v>
       </c>
       <c r="BE17" s="1">
         <v>1.587132</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.260000</v>
+        <v>1035.26</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.092000</v>
+        <v>-194.09200000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>5724.236875</v>
+        <v>5724.2368749999996</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.590066</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.236000</v>
+        <v>-310.23599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>5734.737209</v>
+        <v>5734.7372089999999</v>
       </c>
       <c r="BO17" s="1">
         <v>1.592983</v>
       </c>
       <c r="BP17" s="1">
-        <v>1206.060000</v>
+        <v>1206.06</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-494.639000</v>
+        <v>-494.63900000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>5745.733486</v>
+        <v>5745.7334860000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.596037</v>
+        <v>1.5960369999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1325.980000</v>
+        <v>1325.98</v>
       </c>
       <c r="BV17" s="1">
-        <v>-698.357000</v>
+        <v>-698.35699999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>5756.550241</v>
+        <v>5756.5502409999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.599042</v>
+        <v>1.5990420000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1461.130000</v>
+        <v>1461.13</v>
       </c>
       <c r="CA17" s="1">
-        <v>-915.244000</v>
+        <v>-915.24400000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>5768.943776</v>
+        <v>5768.9437760000001</v>
       </c>
       <c r="CD17" s="1">
         <v>1.602484</v>
       </c>
       <c r="CE17" s="1">
-        <v>1818.880000</v>
+        <v>1818.88</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1432.160000</v>
+        <v>-1432.16</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>5595.891093</v>
+        <v>5595.8910930000002</v>
       </c>
       <c r="B18" s="1">
         <v>1.554414</v>
       </c>
       <c r="C18" s="1">
-        <v>898.886000</v>
+        <v>898.88599999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.188000</v>
+        <v>-200.18799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>5606.349271</v>
       </c>
       <c r="G18" s="1">
-        <v>1.557319</v>
+        <v>1.5573189999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.861000</v>
+        <v>916.86099999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.510000</v>
+        <v>-169.51</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>5616.797497</v>
+        <v>5616.7974969999996</v>
       </c>
       <c r="L18" s="1">
         <v>1.560222</v>
       </c>
       <c r="M18" s="1">
-        <v>939.883000</v>
+        <v>939.88300000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.770000</v>
+        <v>-119.77</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>5628.008042</v>
+        <v>5628.0080420000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.563336</v>
+        <v>1.5633360000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>946.736000</v>
+        <v>946.73599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.349000</v>
+        <v>-103.349</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>5638.867986</v>
+        <v>5638.8679860000002</v>
       </c>
       <c r="V18" s="1">
         <v>1.566352</v>
       </c>
       <c r="W18" s="1">
-        <v>953.099000</v>
+        <v>953.09900000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.163200</v>
+        <v>-88.163200000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>5649.050351</v>
+        <v>5649.0503509999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.569181</v>
+        <v>1.5691809999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.845000</v>
+        <v>959.84500000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.402200</v>
+        <v>-76.402199999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>5659.486672</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.572080</v>
+        <v>1.5720799999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.567000</v>
+        <v>964.56700000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.209400</v>
+        <v>-74.209400000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>5669.938339</v>
+        <v>5669.9383390000003</v>
       </c>
       <c r="AK18" s="1">
         <v>1.574983</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.666000</v>
+        <v>971.66600000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.809200</v>
+        <v>-78.809200000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>5680.772948</v>
+        <v>5680.7729479999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.577992</v>
+        <v>1.5779920000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.697000</v>
+        <v>979.697</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.211700</v>
+        <v>-90.211699999999993</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>5691.937397</v>
+        <v>5691.9373969999997</v>
       </c>
       <c r="AU18" s="1">
         <v>1.581094</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.391000</v>
+        <v>989.39099999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.589000</v>
+        <v>-107.589</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>5703.325047</v>
+        <v>5703.3250470000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>1.584257</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.514000</v>
+        <v>997.51400000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-122.986000</v>
+        <v>-122.986</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>5713.984601</v>
+        <v>5713.9846010000001</v>
       </c>
       <c r="BE18" s="1">
         <v>1.587218</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.109000</v>
+        <v>-194.10900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>5724.627754</v>
+        <v>5724.6277540000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>1.590174</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.200000</v>
+        <v>1100.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.248000</v>
+        <v>-310.24799999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>5735.132493</v>
+        <v>5735.1324930000001</v>
       </c>
       <c r="BO18" s="1">
         <v>1.593092</v>
       </c>
       <c r="BP18" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-494.709000</v>
+        <v>-494.709</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>5746.144175</v>
+        <v>5746.1441750000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.596151</v>
+        <v>1.5961510000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1325.990000</v>
+        <v>1325.99</v>
       </c>
       <c r="BV18" s="1">
-        <v>-698.259000</v>
+        <v>-698.25900000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>5756.971891</v>
+        <v>5756.9718910000001</v>
       </c>
       <c r="BY18" s="1">
         <v>1.599159</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1461.060000</v>
+        <v>1461.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-915.221000</v>
+        <v>-915.221</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>5769.465604</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.602629</v>
+        <v>1.6026290000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1818.940000</v>
+        <v>1818.94</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1432.140000</v>
+        <v>-1432.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>5596.231844</v>
+        <v>5596.2318439999999</v>
       </c>
       <c r="B19" s="1">
-        <v>1.554509</v>
+        <v>1.5545089999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>898.606000</v>
+        <v>898.60599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.366000</v>
+        <v>-200.36600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>5606.994038</v>
+        <v>5606.9940379999998</v>
       </c>
       <c r="G19" s="1">
         <v>1.557498</v>
       </c>
       <c r="H19" s="1">
-        <v>916.879000</v>
+        <v>916.87900000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.509000</v>
+        <v>-169.50899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>5617.469544</v>
+        <v>5617.4695439999996</v>
       </c>
       <c r="L19" s="1">
         <v>1.560408</v>
       </c>
       <c r="M19" s="1">
-        <v>939.953000</v>
+        <v>939.95299999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.667000</v>
+        <v>-119.667</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>5628.394462</v>
+        <v>5628.3944620000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.563443</v>
+        <v>1.5634429999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.709000</v>
+        <v>946.70899999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>5639.210715</v>
+        <v>5639.2107150000002</v>
       </c>
       <c r="V19" s="1">
-        <v>1.566447</v>
+        <v>1.5664469999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>953.066000</v>
+        <v>953.06600000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.201900</v>
+        <v>-88.201899999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>5649.398259</v>
+        <v>5649.3982589999996</v>
       </c>
       <c r="AA19" s="1">
         <v>1.569277</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.982000</v>
+        <v>959.98199999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.480100</v>
+        <v>-76.480099999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>5659.832880</v>
+        <v>5659.8328799999999</v>
       </c>
       <c r="AF19" s="1">
         <v>1.572176</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.566000</v>
+        <v>964.56600000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.195700</v>
+        <v>-74.195700000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>5670.357955</v>
+        <v>5670.3579550000004</v>
       </c>
       <c r="AK19" s="1">
         <v>1.575099</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.659000</v>
+        <v>971.65899999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.822700</v>
+        <v>-78.822699999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>5681.191091</v>
+        <v>5681.1910909999997</v>
       </c>
       <c r="AP19" s="1">
         <v>1.578109</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.682000</v>
+        <v>979.68200000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.223800</v>
+        <v>-90.223799999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>5692.249381</v>
+        <v>5692.2493809999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.581180</v>
+        <v>1.58118</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.406000</v>
+        <v>989.40599999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.604000</v>
+        <v>-107.604</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>5703.681672</v>
+        <v>5703.6816719999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.584356</v>
+        <v>1.5843560000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.504000</v>
+        <v>997.50400000000002</v>
       </c>
       <c r="BB19" s="1">
-        <v>-122.991000</v>
+        <v>-122.991</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>5714.346681</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.587319</v>
+        <v>1.5873189999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.085000</v>
+        <v>-194.08500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>5725.004186</v>
+        <v>5725.0041860000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>1.590279</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.240000</v>
+        <v>-310.24</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>5735.555086</v>
+        <v>5735.5550860000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.593210</v>
+        <v>1.59321</v>
       </c>
       <c r="BP19" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-494.659000</v>
+        <v>-494.65899999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>5746.576221</v>
+        <v>5746.5762210000003</v>
       </c>
       <c r="BT19" s="1">
         <v>1.596271</v>
       </c>
       <c r="BU19" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="BV19" s="1">
-        <v>-698.374000</v>
+        <v>-698.37400000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>5757.413775</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.599282</v>
+        <v>1.5992820000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1461.130000</v>
+        <v>1461.13</v>
       </c>
       <c r="CA19" s="1">
-        <v>-915.286000</v>
+        <v>-915.28599999999994</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>5770.012655</v>
+        <v>5770.0126550000004</v>
       </c>
       <c r="CD19" s="1">
         <v>1.602781</v>
       </c>
       <c r="CE19" s="1">
-        <v>1817.930000</v>
+        <v>1817.93</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1432.760000</v>
+        <v>-1432.76</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>5596.876148</v>
+        <v>5596.8761480000003</v>
       </c>
       <c r="B20" s="1">
-        <v>1.554688</v>
+        <v>1.5546880000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>898.703000</v>
+        <v>898.70299999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.244000</v>
+        <v>-200.244</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>5607.381909</v>
+        <v>5607.3819089999997</v>
       </c>
       <c r="G20" s="1">
         <v>1.557606</v>
       </c>
       <c r="H20" s="1">
-        <v>916.545000</v>
+        <v>916.54499999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.661000</v>
+        <v>-169.661</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>5617.836089</v>
+        <v>5617.8360890000004</v>
       </c>
       <c r="L20" s="1">
-        <v>1.560510</v>
+        <v>1.5605100000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>939.845000</v>
+        <v>939.84500000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.674000</v>
+        <v>-119.67400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>5628.741130</v>
+        <v>5628.7411300000003</v>
       </c>
       <c r="Q20" s="1">
         <v>1.563539</v>
       </c>
       <c r="R20" s="1">
-        <v>946.699000</v>
+        <v>946.69899999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.276000</v>
+        <v>-103.276</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>5639.554907</v>
+        <v>5639.5549069999997</v>
       </c>
       <c r="V20" s="1">
         <v>1.566543</v>
       </c>
       <c r="W20" s="1">
-        <v>953.121000</v>
+        <v>953.12099999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.196100</v>
+        <v>-88.196100000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>5649.746238</v>
+        <v>5649.7462379999997</v>
       </c>
       <c r="AA20" s="1">
         <v>1.569374</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.894000</v>
+        <v>959.89400000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.399700</v>
+        <v>-76.399699999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>5660.240560</v>
+        <v>5660.2405600000002</v>
       </c>
       <c r="AF20" s="1">
         <v>1.572289</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.560000</v>
+        <v>964.56</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.241200</v>
+        <v>-74.241200000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>5670.632243</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.575176</v>
+        <v>1.5751759999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.687000</v>
+        <v>971.68700000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.827800</v>
+        <v>-78.827799999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>5681.496117</v>
+        <v>5681.4961169999997</v>
       </c>
       <c r="AP20" s="1">
         <v>1.578193</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.661000</v>
+        <v>979.66099999999994</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.210900</v>
+        <v>-90.210899999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>5692.611029</v>
+        <v>5692.6110289999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.581281</v>
+        <v>1.5812809999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.403000</v>
+        <v>989.40300000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.600000</v>
+        <v>-107.6</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>5704.040309</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.584456</v>
+        <v>1.5844560000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.526000</v>
+        <v>997.52599999999995</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.011000</v>
+        <v>-123.011</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>5714.707240</v>
+        <v>5714.7072399999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.587419</v>
+        <v>1.5874189999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.124000</v>
+        <v>-194.124</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>5725.752153</v>
+        <v>5725.7521530000004</v>
       </c>
       <c r="BJ20" s="1">
         <v>1.590487</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.266000</v>
+        <v>-310.26600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>5736.368524</v>
+        <v>5736.3685240000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.593436</v>
+        <v>1.5934360000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-494.640000</v>
+        <v>-494.64</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>5747.002781</v>
+        <v>5747.0027810000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.596390</v>
+        <v>1.59639</v>
       </c>
       <c r="BU20" s="1">
-        <v>1325.980000</v>
+        <v>1325.98</v>
       </c>
       <c r="BV20" s="1">
-        <v>-698.274000</v>
+        <v>-698.274</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>5757.836367</v>
+        <v>5757.8363669999999</v>
       </c>
       <c r="BY20" s="1">
         <v>1.599399</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1461.100000</v>
+        <v>1461.1</v>
       </c>
       <c r="CA20" s="1">
-        <v>-915.264000</v>
+        <v>-915.26400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>5770.540436</v>
+        <v>5770.5404360000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.602928</v>
+        <v>1.6029279999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1818.910000</v>
+        <v>1818.91</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1431.590000</v>
+        <v>-1431.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>5597.255587</v>
+        <v>5597.2555869999997</v>
       </c>
       <c r="B21" s="1">
-        <v>1.554793</v>
+        <v>1.5547930000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>898.565000</v>
+        <v>898.56500000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.291000</v>
+        <v>-200.291</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5607.725670</v>
+        <v>5607.7256699999998</v>
       </c>
       <c r="G21" s="1">
-        <v>1.557702</v>
+        <v>1.5577019999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.652000</v>
+        <v>916.65200000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.092000</v>
+        <v>-169.09200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>5618.180809</v>
+        <v>5618.1808090000004</v>
       </c>
       <c r="L21" s="1">
-        <v>1.560606</v>
+        <v>1.5606059999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.072000</v>
+        <v>940.072</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.778000</v>
+        <v>-119.77800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>5629.087368</v>
+        <v>5629.0873680000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.563635</v>
+        <v>1.5636350000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>946.729000</v>
+        <v>946.72900000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.303000</v>
+        <v>-103.303</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>5639.970555</v>
+        <v>5639.9705549999999</v>
       </c>
       <c r="V21" s="1">
-        <v>1.566658</v>
+        <v>1.5666580000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>953.082000</v>
+        <v>953.08199999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.181300</v>
+        <v>-88.181299999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>5650.178745</v>
+        <v>5650.1787450000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.569494</v>
+        <v>1.5694939999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.983000</v>
+        <v>959.98299999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.452100</v>
+        <v>-76.452100000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>5660.532208</v>
+        <v>5660.5322079999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.572370</v>
+        <v>1.57237</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.538000</v>
+        <v>964.53800000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.210500</v>
+        <v>-74.210499999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>5670.984403</v>
+        <v>5670.9844030000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.575273</v>
+        <v>1.5752729999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.676000</v>
+        <v>971.67600000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.807100</v>
+        <v>-78.807100000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>5681.852243</v>
+        <v>5681.8522430000003</v>
       </c>
       <c r="AP21" s="1">
         <v>1.578292</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.688000</v>
+        <v>979.68799999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.203400</v>
+        <v>-90.203400000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>5692.975028</v>
+        <v>5692.9750279999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.581382</v>
+        <v>1.5813820000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.397000</v>
+        <v>989.39700000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.595000</v>
+        <v>-107.595</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>5704.759013</v>
+        <v>5704.7590129999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.584655</v>
+        <v>1.5846549999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.508000</v>
+        <v>997.50800000000004</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.013000</v>
+        <v>-123.01300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>5715.429911</v>
+        <v>5715.4299110000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.587619</v>
+        <v>1.5876189999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.113000</v>
+        <v>-194.113</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>5726.128157</v>
+        <v>5726.1281570000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.590591</v>
+        <v>1.5905910000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.210000</v>
+        <v>1100.21</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.250000</v>
+        <v>-310.25</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>5736.809964</v>
@@ -5559,422 +5975,422 @@
         <v>1.593558</v>
       </c>
       <c r="BP21" s="1">
-        <v>1206.100000</v>
+        <v>1206.0999999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-494.669000</v>
+        <v>-494.66899999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>5747.414468</v>
+        <v>5747.4144679999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.596504</v>
+        <v>1.5965039999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1325.950000</v>
+        <v>1325.95</v>
       </c>
       <c r="BV21" s="1">
-        <v>-698.338000</v>
+        <v>-698.33799999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>5758.556094</v>
+        <v>5758.5560939999996</v>
       </c>
       <c r="BY21" s="1">
         <v>1.599599</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1461.050000</v>
+        <v>1461.05</v>
       </c>
       <c r="CA21" s="1">
-        <v>-915.245000</v>
+        <v>-915.245</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>5771.062190</v>
+        <v>5771.0621899999996</v>
       </c>
       <c r="CD21" s="1">
         <v>1.603073</v>
       </c>
       <c r="CE21" s="1">
-        <v>1817.520000</v>
+        <v>1817.52</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1432.080000</v>
+        <v>-1432.08</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>5597.600306</v>
+        <v>5597.6003060000003</v>
       </c>
       <c r="B22" s="1">
         <v>1.554889</v>
       </c>
       <c r="C22" s="1">
-        <v>898.684000</v>
+        <v>898.68399999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.482000</v>
+        <v>-200.482</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5608.070356</v>
+        <v>5608.0703560000002</v>
       </c>
       <c r="G22" s="1">
-        <v>1.557797</v>
+        <v>1.5577970000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>916.474000</v>
+        <v>916.47400000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.422000</v>
+        <v>-169.422</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>5618.534201</v>
+        <v>5618.5342010000004</v>
       </c>
       <c r="L22" s="1">
-        <v>1.560704</v>
+        <v>1.5607040000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.067000</v>
+        <v>940.06700000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.460000</v>
+        <v>-119.46</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>5629.517368</v>
+        <v>5629.5173679999998</v>
       </c>
       <c r="Q22" s="1">
         <v>1.563755</v>
       </c>
       <c r="R22" s="1">
-        <v>946.709000</v>
+        <v>946.70899999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.336000</v>
+        <v>-103.336</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>5640.246827</v>
+        <v>5640.2468269999999</v>
       </c>
       <c r="V22" s="1">
         <v>1.566735</v>
       </c>
       <c r="W22" s="1">
-        <v>953.092000</v>
+        <v>953.09199999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.185700</v>
+        <v>-88.185699999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>5650.458462</v>
+        <v>5650.4584619999996</v>
       </c>
       <c r="AA22" s="1">
         <v>1.569572</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.902000</v>
+        <v>959.90200000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.413600</v>
+        <v>-76.413600000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>5660.874446</v>
+        <v>5660.8744459999998</v>
       </c>
       <c r="AF22" s="1">
         <v>1.572465</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.514000</v>
+        <v>964.51400000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.203300</v>
+        <v>-74.203299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>5671.331603</v>
+        <v>5671.3316029999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.575370</v>
+        <v>1.5753699999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.662000</v>
+        <v>971.66200000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.819100</v>
+        <v>-78.819100000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>5682.213828</v>
+        <v>5682.2138279999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.578393</v>
+        <v>1.5783929999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.679000</v>
+        <v>979.67899999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.218900</v>
+        <v>-90.218900000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>5693.703651</v>
+        <v>5693.7036509999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.581584</v>
+        <v>1.5815840000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.408000</v>
+        <v>989.40800000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.586000</v>
+        <v>-107.586</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>5705.116628</v>
+        <v>5705.1166279999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.584755</v>
+        <v>1.5847549999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.522000</v>
+        <v>997.52200000000005</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.004000</v>
+        <v>-123.004</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>5715.819304</v>
+        <v>5715.8193039999996</v>
       </c>
       <c r="BE22" s="1">
         <v>1.587728</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.110000</v>
+        <v>-194.11</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>5726.502104</v>
+        <v>5726.5021040000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.590695</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.243000</v>
+        <v>-310.24299999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>5737.487002</v>
+        <v>5737.4870019999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.593746</v>
+        <v>1.5937460000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-494.685000</v>
+        <v>-494.685</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>5748.157963</v>
+        <v>5748.1579629999997</v>
       </c>
       <c r="BT22" s="1">
         <v>1.596711</v>
       </c>
       <c r="BU22" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="BV22" s="1">
-        <v>-698.379000</v>
+        <v>-698.37900000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>5758.739581</v>
+        <v>5758.7395809999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.599650</v>
+        <v>1.59965</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1461.050000</v>
+        <v>1461.05</v>
       </c>
       <c r="CA22" s="1">
-        <v>-915.230000</v>
+        <v>-915.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>5771.600349</v>
+        <v>5771.6003490000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.603222</v>
+        <v>1.6032219999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1818.890000</v>
+        <v>1818.89</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1432.730000</v>
+        <v>-1432.73</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>5597.939111</v>
+        <v>5597.9391109999997</v>
       </c>
       <c r="B23" s="1">
         <v>1.554983</v>
       </c>
       <c r="C23" s="1">
-        <v>898.743000</v>
+        <v>898.74300000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.315000</v>
+        <v>-200.315</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>5608.493444</v>
+        <v>5608.4934439999997</v>
       </c>
       <c r="G23" s="1">
-        <v>1.557915</v>
+        <v>1.5579149999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>916.824000</v>
+        <v>916.82399999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.244000</v>
+        <v>-169.244</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>5619.221446</v>
+        <v>5619.2214459999996</v>
       </c>
       <c r="L23" s="1">
-        <v>1.560895</v>
+        <v>1.5608949999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>940.197000</v>
+        <v>940.197</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.784000</v>
+        <v>-119.78400000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>5629.798103</v>
+        <v>5629.7981030000001</v>
       </c>
       <c r="Q23" s="1">
         <v>1.563833</v>
       </c>
       <c r="R23" s="1">
-        <v>946.718000</v>
+        <v>946.71799999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>5640.591546</v>
+        <v>5640.5915459999997</v>
       </c>
       <c r="V23" s="1">
-        <v>1.566831</v>
+        <v>1.5668310000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>952.970000</v>
+        <v>952.97</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.039200</v>
+        <v>-88.039199999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>5650.804669</v>
+        <v>5650.8046690000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.569668</v>
+        <v>1.5696680000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.945000</v>
+        <v>959.94500000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.482300</v>
+        <v>-76.482299999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>5661.217680</v>
+        <v>5661.2176799999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.572560</v>
+        <v>1.57256</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.573000</v>
+        <v>964.57299999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.179000</v>
+        <v>-74.179000000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>5672.029536</v>
@@ -5983,58 +6399,58 @@
         <v>1.575564</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.691000</v>
+        <v>971.69100000000003</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.829600</v>
+        <v>-78.829599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>5682.936499</v>
+        <v>5682.9364990000004</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.578593</v>
+        <v>1.5785929999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.685000</v>
+        <v>979.68499999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.186300</v>
+        <v>-90.186300000000003</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>5694.094516</v>
+        <v>5694.0945160000001</v>
       </c>
       <c r="AU23" s="1">
         <v>1.581693</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.409000</v>
+        <v>989.40899999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.582000</v>
+        <v>-107.58199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>5705.476533</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.584855</v>
+        <v>1.5848549999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.514000</v>
+        <v>997.51400000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.009000</v>
+        <v>-123.009</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>5716.200237</v>
@@ -6043,165 +6459,165 @@
         <v>1.587833</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.096000</v>
+        <v>-194.096</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>5727.181127</v>
+        <v>5727.1811269999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>1.590884</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.180000</v>
+        <v>1100.18</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.235000</v>
+        <v>-310.23500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>5737.607033</v>
+        <v>5737.6070330000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.593780</v>
+        <v>1.59378</v>
       </c>
       <c r="BP23" s="1">
-        <v>1206.060000</v>
+        <v>1206.06</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-494.680000</v>
+        <v>-494.68</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>5748.272849</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.596742</v>
+        <v>1.5967420000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1325.930000</v>
+        <v>1325.93</v>
       </c>
       <c r="BV23" s="1">
-        <v>-698.306000</v>
+        <v>-698.30600000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>5759.163693</v>
+        <v>5759.1636930000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.599768</v>
+        <v>1.5997680000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1461.180000</v>
+        <v>1461.18</v>
       </c>
       <c r="CA23" s="1">
-        <v>-915.196000</v>
+        <v>-915.19600000000003</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>5772.140988</v>
+        <v>5772.1409880000001</v>
       </c>
       <c r="CD23" s="1">
         <v>1.603372</v>
       </c>
       <c r="CE23" s="1">
-        <v>1817.530000</v>
+        <v>1817.53</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1431.520000</v>
+        <v>-1431.52</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>5598.352241</v>
+        <v>5598.3522409999996</v>
       </c>
       <c r="B24" s="1">
-        <v>1.555098</v>
+        <v>1.5550980000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>898.668000</v>
+        <v>898.66800000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.275000</v>
+        <v>-200.27500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5608.758804</v>
+        <v>5608.7588040000001</v>
       </c>
       <c r="G24" s="1">
-        <v>1.557989</v>
+        <v>1.5579890000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>917.062000</v>
+        <v>917.06200000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.815000</v>
+        <v>-168.815</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>5619.569637</v>
+        <v>5619.5696369999996</v>
       </c>
       <c r="L24" s="1">
-        <v>1.560992</v>
+        <v>1.5609919999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.023000</v>
+        <v>940.02300000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.989000</v>
+        <v>-119.989</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>5630.145303</v>
+        <v>5630.1453030000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.563929</v>
+        <v>1.5639289999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>946.716000</v>
+        <v>946.71600000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.348000</v>
+        <v>-103.348</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>5640.933322</v>
+        <v>5640.9333219999999</v>
       </c>
       <c r="V24" s="1">
         <v>1.566926</v>
       </c>
       <c r="W24" s="1">
-        <v>953.003000</v>
+        <v>953.00300000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.117200</v>
+        <v>-88.117199999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>5651.158316</v>
@@ -6210,13 +6626,13 @@
         <v>1.569766</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.982000</v>
+        <v>959.98199999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.432900</v>
+        <v>-76.432900000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>5661.904638</v>
@@ -6225,88 +6641,88 @@
         <v>1.572751</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.513000</v>
+        <v>964.51300000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.140900</v>
+        <v>-74.140900000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>5672.379151</v>
+        <v>5672.3791510000001</v>
       </c>
       <c r="AK24" s="1">
         <v>1.575661</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.680000</v>
+        <v>971.68</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.838300</v>
+        <v>-78.838300000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>5683.296131</v>
+        <v>5683.2961310000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.578693</v>
+        <v>1.5786929999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.682000</v>
+        <v>979.68200000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.185700</v>
+        <v>-90.185699999999997</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>5694.460546</v>
+        <v>5694.4605460000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.581795</v>
+        <v>1.5817950000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.398000</v>
+        <v>989.39800000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.585000</v>
+        <v>-107.58499999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>5706.143811</v>
+        <v>5706.1438109999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.585040</v>
+        <v>1.58504</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.523000</v>
+        <v>997.52300000000002</v>
       </c>
       <c r="BB24" s="1">
-        <v>-122.991000</v>
+        <v>-122.991</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>5716.872283</v>
+        <v>5716.8722829999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.588020</v>
+        <v>1.58802</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.118000</v>
+        <v>-194.11799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>5727.288262</v>
@@ -6315,195 +6731,195 @@
         <v>1.590913</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.190000</v>
+        <v>1100.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.270000</v>
+        <v>-310.27</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>5738.028634</v>
+        <v>5738.0286340000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.593897</v>
+        <v>1.5938969999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-494.701000</v>
+        <v>-494.70100000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>5748.709484</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.596864</v>
+        <v>1.5968640000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1325.940000</v>
+        <v>1325.94</v>
       </c>
       <c r="BV24" s="1">
-        <v>-698.306000</v>
+        <v>-698.30600000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>5759.582325</v>
+        <v>5759.5823250000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.599884</v>
+        <v>1.5998840000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1461.060000</v>
+        <v>1461.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-915.223000</v>
+        <v>-915.22299999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>5772.679643</v>
+        <v>5772.6796430000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.603522</v>
+        <v>1.6035219999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1817.730000</v>
+        <v>1817.73</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1432.790000</v>
+        <v>-1432.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>5598.640914</v>
+        <v>5598.6409139999996</v>
       </c>
       <c r="B25" s="1">
-        <v>1.555178</v>
+        <v>1.5551779999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>898.629000</v>
+        <v>898.62900000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.297000</v>
+        <v>-200.297</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>5609.106061</v>
+        <v>5609.1060610000004</v>
       </c>
       <c r="G25" s="1">
-        <v>1.558085</v>
+        <v>1.5580849999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>916.811000</v>
+        <v>916.81100000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.177000</v>
+        <v>-169.17699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>5619.912837</v>
+        <v>5619.9128369999999</v>
       </c>
       <c r="L25" s="1">
-        <v>1.561087</v>
+        <v>1.5610869999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>940.096000</v>
+        <v>940.096</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.741000</v>
+        <v>-119.741</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>5630.493495</v>
+        <v>5630.4934949999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.564026</v>
+        <v>1.5640259999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>946.719000</v>
+        <v>946.71900000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.298000</v>
+        <v>-103.298</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>5641.616777</v>
+        <v>5641.6167770000002</v>
       </c>
       <c r="V25" s="1">
         <v>1.567116</v>
       </c>
       <c r="W25" s="1">
-        <v>953.040000</v>
+        <v>953.04</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.093400</v>
+        <v>-88.093400000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>5651.855690</v>
+        <v>5651.8556900000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.569960</v>
+        <v>1.56996</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.964000</v>
+        <v>959.96400000000006</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.386500</v>
+        <v>-76.386499999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>5662.249389</v>
+        <v>5662.2493889999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.572847</v>
+        <v>1.5728470000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.546000</v>
+        <v>964.54600000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.205300</v>
+        <v>-74.205299999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>5672.726847</v>
+        <v>5672.7268469999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.575757</v>
+        <v>1.5757570000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.682000</v>
+        <v>971.68200000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.828500</v>
+        <v>-78.828500000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>5683.657185</v>
@@ -6512,392 +6928,393 @@
         <v>1.578794</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.685000</v>
+        <v>979.68499999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.196100</v>
+        <v>-90.196100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>5695.126681</v>
+        <v>5695.1266809999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.581980</v>
+        <v>1.5819799999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.393000</v>
+        <v>989.39300000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.627000</v>
+        <v>-107.627</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>5706.554038</v>
+        <v>5706.5540380000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.585154</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.513000</v>
+        <v>997.51300000000003</v>
       </c>
       <c r="BB25" s="1">
-        <v>-122.990000</v>
+        <v>-122.99</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>5717.283988</v>
+        <v>5717.2839880000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.588134</v>
+        <v>1.5881339999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.084000</v>
+        <v>-194.084</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>5727.661750</v>
+        <v>5727.6617500000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.591017</v>
+        <v>1.5910169999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.240000</v>
+        <v>-310.24</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>5738.426424</v>
+        <v>5738.4264240000002</v>
       </c>
       <c r="BO25" s="1">
         <v>1.594007</v>
       </c>
       <c r="BP25" s="1">
-        <v>1206.120000</v>
+        <v>1206.1199999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-494.702000</v>
+        <v>-494.702</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>5749.123146</v>
+        <v>5749.1231459999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.596979</v>
+        <v>1.5969789999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1325.940000</v>
+        <v>1325.94</v>
       </c>
       <c r="BV25" s="1">
-        <v>-698.323000</v>
+        <v>-698.32299999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>5760.029213</v>
+        <v>5760.0292129999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.600008</v>
+        <v>1.6000080000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1461.010000</v>
+        <v>1461.01</v>
       </c>
       <c r="CA25" s="1">
-        <v>-915.226000</v>
+        <v>-915.226</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>5773.221770</v>
+        <v>5773.2217700000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.603673</v>
+        <v>1.6036729999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1818.550000</v>
+        <v>1818.55</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1431.370000</v>
+        <v>-1431.37</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>5598.983152</v>
+        <v>5598.9831519999998</v>
       </c>
       <c r="B26" s="1">
-        <v>1.555273</v>
+        <v>1.5552729999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>898.588000</v>
+        <v>898.58799999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.236000</v>
+        <v>-200.23599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5609.449731</v>
+        <v>5609.4497309999997</v>
       </c>
       <c r="G26" s="1">
-        <v>1.558180</v>
+        <v>1.5581799999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>916.717000</v>
+        <v>916.71699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.163000</v>
+        <v>-169.16300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>5620.606740</v>
+        <v>5620.6067400000002</v>
       </c>
       <c r="L26" s="1">
-        <v>1.561280</v>
+        <v>1.56128</v>
       </c>
       <c r="M26" s="1">
-        <v>940.130000</v>
+        <v>940.13</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.545000</v>
+        <v>-119.545</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>5631.190903</v>
+        <v>5631.1909029999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.564220</v>
+        <v>1.5642199999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>946.712000</v>
+        <v>946.71199999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.281000</v>
+        <v>-103.28100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>5641.961992</v>
+        <v>5641.9619919999996</v>
       </c>
       <c r="V26" s="1">
         <v>1.567212</v>
       </c>
       <c r="W26" s="1">
-        <v>953.012000</v>
+        <v>953.01199999999994</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.125000</v>
+        <v>-88.125</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>5652.202890</v>
+        <v>5652.2028899999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.570056</v>
+        <v>1.5700559999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.848000</v>
+        <v>959.84799999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.418800</v>
+        <v>-76.418800000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>5662.590604</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.572942</v>
+        <v>1.5729420000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.562000</v>
+        <v>964.56200000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.169100</v>
+        <v>-74.1691</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>5673.383054</v>
+        <v>5673.3830539999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.575940</v>
+        <v>1.5759399999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.697000</v>
+        <v>971.697</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.831500</v>
+        <v>-78.831500000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>5684.328600</v>
+        <v>5684.3285999999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.578980</v>
+        <v>1.5789800000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.701000</v>
+        <v>979.70100000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.213100</v>
+        <v>-90.213099999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>5695.585474</v>
+        <v>5695.5854740000004</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.582107</v>
+        <v>1.5821069999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.407000</v>
+        <v>989.40700000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.609000</v>
+        <v>-107.60899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>5706.941874</v>
+        <v>5706.9418740000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.585262</v>
+        <v>1.5852619999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.509000</v>
+        <v>997.50900000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.006000</v>
+        <v>-123.006</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>5717.674804</v>
+        <v>5717.6748040000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.588243</v>
+        <v>1.5882430000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.260000</v>
+        <v>1035.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.083000</v>
+        <v>-194.083</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>5728.036727</v>
+        <v>5728.0367269999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>1.591121</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.220000</v>
+        <v>1100.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>5738.848025</v>
+        <v>5738.8480250000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.594124</v>
+        <v>1.5941240000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-494.666000</v>
+        <v>-494.666</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>5749.555974</v>
+        <v>5749.5559739999999</v>
       </c>
       <c r="BT26" s="1">
         <v>1.597099</v>
       </c>
       <c r="BU26" s="1">
-        <v>1325.960000</v>
+        <v>1325.96</v>
       </c>
       <c r="BV26" s="1">
-        <v>-698.278000</v>
+        <v>-698.27800000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>5760.449291</v>
+        <v>5760.4492909999999</v>
       </c>
       <c r="BY26" s="1">
         <v>1.600125</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1461.060000</v>
+        <v>1461.06</v>
       </c>
       <c r="CA26" s="1">
-        <v>-915.259000</v>
+        <v>-915.25900000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>5773.756457</v>
+        <v>5773.7564570000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.603821</v>
+        <v>1.6038209999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1817.460000</v>
+        <v>1817.46</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1432.130000</v>
+        <v>-1432.13</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>